--- a/Unity/ReunionMovement/Assets/ReunionMovement/Editor/Excel/Resources/Languages.xlsx
+++ b/Unity/ReunionMovement/Assets/ReunionMovement/Editor/Excel/Resources/Languages.xlsx
@@ -1,6 +1,6 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:dbsheet="http://web.wps.cn/et/2021/dbsheet">
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="256" uniqueCount="71">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="110" uniqueCount="104">
   <si>
     <t>索引</t>
   </si>
@@ -44,27 +44,9 @@
     <t>俄文</t>
   </si>
   <si>
-    <t>法文</t>
-  </si>
-  <si>
-    <t>德文</t>
-  </si>
-  <si>
-    <t>西班牙文</t>
-  </si>
-  <si>
-    <t>意大利文</t>
-  </si>
-  <si>
-    <t>葡萄牙文</t>
-  </si>
-  <si>
     <t>日文</t>
   </si>
   <si>
-    <t>韩文</t>
-  </si>
-  <si>
     <t>int</t>
   </si>
   <si>
@@ -86,34 +68,19 @@
     <t>RU</t>
   </si>
   <si>
-    <t>FR</t>
-  </si>
-  <si>
-    <t>DE</t>
-  </si>
-  <si>
-    <t>ES</t>
-  </si>
-  <si>
-    <t>IT</t>
-  </si>
-  <si>
-    <t>PT</t>
-  </si>
-  <si>
     <t>JP</t>
   </si>
   <si>
-    <t>KR</t>
-  </si>
-  <si>
     <t>开始游戏</t>
   </si>
   <si>
     <t>Start Game</t>
   </si>
   <si>
-    <t>Null</t>
+    <t>Пуск игры</t>
+  </si>
+  <si>
+    <t>ゲーム開始</t>
   </si>
   <si>
     <t>设置</t>
@@ -122,52 +89,106 @@
     <t>Options</t>
   </si>
   <si>
+    <t>Опции</t>
+  </si>
+  <si>
+    <t>オプション</t>
+  </si>
+  <si>
     <t>退出游戏</t>
   </si>
   <si>
     <t>Exit Game</t>
   </si>
   <si>
+    <t>Выйти из игры</t>
+  </si>
+  <si>
+    <t>ゲームを退出</t>
+  </si>
+  <si>
     <t>版本号</t>
   </si>
   <si>
     <t>Version Number</t>
   </si>
   <si>
+    <t>Номер версии</t>
+  </si>
+  <si>
+    <t>バージョン番号</t>
+  </si>
+  <si>
     <t>全屏</t>
   </si>
   <si>
     <t>Full Screen</t>
   </si>
   <si>
+    <t>Полный экран</t>
+  </si>
+  <si>
+    <t>フルスクリーン</t>
+  </si>
+  <si>
     <t>分辨率</t>
   </si>
   <si>
     <t>Screen Resolution</t>
   </si>
   <si>
+    <t>Разрешение экрана</t>
+  </si>
+  <si>
+    <t>画面解像度</t>
+  </si>
+  <si>
     <t>语言切换</t>
   </si>
   <si>
     <t>Language Switch</t>
   </si>
   <si>
+    <t>Переключатель языка</t>
+  </si>
+  <si>
+    <t>言語スイッチ</t>
+  </si>
+  <si>
     <t>背景音乐</t>
   </si>
   <si>
     <t>Background Music</t>
   </si>
   <si>
+    <t>Фоновая музыка</t>
+  </si>
+  <si>
+    <t>背景音楽</t>
+  </si>
+  <si>
     <t>背景音乐音量</t>
   </si>
   <si>
     <t>Background Music Volume</t>
   </si>
   <si>
+    <t>Объем фоновой музыки</t>
+  </si>
+  <si>
+    <t>背景音楽音量</t>
+  </si>
+  <si>
     <t>声音特效</t>
   </si>
   <si>
-    <t>Sound Effects</t>
+    <t>Sound Effect</t>
+  </si>
+  <si>
+    <t>Звуковый эффект</t>
+  </si>
+  <si>
+    <t>サウンド効果</t>
   </si>
   <si>
     <t>声音特效音音量</t>
@@ -176,70 +197,148 @@
     <t>Sound Effect Volume</t>
   </si>
   <si>
+    <t>Объем звукового эффекта</t>
+  </si>
+  <si>
+    <t>サウンド効果音量</t>
+  </si>
+  <si>
     <t>开启</t>
   </si>
   <si>
     <t>ON</t>
   </si>
   <si>
+    <t>Включено</t>
+  </si>
+  <si>
+    <t>オン</t>
+  </si>
+  <si>
     <t>关闭</t>
   </si>
   <si>
     <t>OFF</t>
   </si>
   <si>
+    <t>Отключено</t>
+  </si>
+  <si>
+    <t>オフ</t>
+  </si>
+  <si>
     <t>上</t>
   </si>
   <si>
     <t>Up</t>
   </si>
   <si>
+    <t>Вверх</t>
+  </si>
+  <si>
+    <t>アップ</t>
+  </si>
+  <si>
     <t>下</t>
   </si>
   <si>
     <t>Down</t>
   </si>
   <si>
+    <t>вниз</t>
+  </si>
+  <si>
+    <t>ダウン</t>
+  </si>
+  <si>
     <t>左</t>
   </si>
   <si>
     <t>Left</t>
   </si>
   <si>
+    <t>Лево</t>
+  </si>
+  <si>
     <t>右</t>
   </si>
   <si>
     <t>Right</t>
   </si>
   <si>
+    <t>Право</t>
+  </si>
+  <si>
     <t>返回</t>
   </si>
   <si>
     <t>Return</t>
   </si>
   <si>
+    <t>Возвращение</t>
+  </si>
+  <si>
+    <t>リターン</t>
+  </si>
+  <si>
     <t>确认</t>
   </si>
   <si>
     <t>Confirm</t>
   </si>
   <si>
+    <t>Подтвердить</t>
+  </si>
+  <si>
+    <t>確認</t>
+  </si>
+  <si>
     <t>选择</t>
   </si>
   <si>
     <t>Select</t>
   </si>
   <si>
+    <t>Выбрать</t>
+  </si>
+  <si>
+    <t>選択</t>
+  </si>
+  <si>
     <t>切换</t>
   </si>
   <si>
     <t>Switch</t>
   </si>
   <si>
+    <t>Переключатель</t>
+  </si>
+  <si>
+    <t>切り替え</t>
+  </si>
+  <si>
+    <t>取消</t>
+  </si>
+  <si>
+    <t>Cancel</t>
+  </si>
+  <si>
+    <t>Отменить</t>
+  </si>
+  <si>
+    <t>キャンセル</t>
+  </si>
+  <si>
     <t>打开控制台</t>
   </si>
   <si>
     <t>Open Console</t>
+  </si>
+  <si>
+    <t>Открыть консоль</t>
+  </si>
+  <si>
+    <t>コンソールを開く</t>
   </si>
 </sst>
 </file>
@@ -1210,21 +1309,23 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:L25"/>
+  <dimension ref="A1:F26"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="D25" sqref="D25"/>
+      <selection activeCell="D26" sqref="D26"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.5083333333333" defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultColWidth="14.5083333333333" defaultRowHeight="13.5" outlineLevelCol="5"/>
   <cols>
     <col min="2" max="2" width="14.5083333333333" customWidth="1"/>
-    <col min="3" max="3" width="47.7416666666667" customWidth="1"/>
-    <col min="4" max="4" width="45.55" customWidth="1"/>
-    <col min="5" max="16384" width="14.5083333333333" customWidth="1"/>
+    <col min="3" max="3" width="21.4416666666667" customWidth="1"/>
+    <col min="4" max="4" width="29.4166666666667" customWidth="1"/>
+    <col min="5" max="5" width="43.9416666666667" customWidth="1"/>
+    <col min="6" max="6" width="21.6333333333333" customWidth="1"/>
+    <col min="7" max="16378" width="14.5083333333333" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12">
+    <row r="1" spans="1:6">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1243,102 +1344,48 @@
       <c r="F1" t="s">
         <v>5</v>
       </c>
-      <c r="G1" t="s">
+    </row>
+    <row r="2" spans="1:6">
+      <c r="A2" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="H1" t="s">
+      <c r="B2" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C2" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="I1" t="s">
+      <c r="D2" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6">
+      <c r="A3" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="J1" t="s">
+      <c r="B3" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="K1" t="s">
+      <c r="C3" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="L1" t="s">
+      <c r="D3" s="1" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="2" spans="1:12">
-      <c r="A2" s="1" t="s">
+      <c r="E3" t="s">
         <v>12</v>
       </c>
-      <c r="B2" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="C2" s="1" t="s">
+      <c r="F3" t="s">
         <v>13</v>
       </c>
-      <c r="D2" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="E2" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="F2" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="G2" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="H2" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="I2" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="J2" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="K2" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="L2" s="1" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="3" spans="1:12">
-      <c r="A3" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="B3" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="C3" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="D3" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="E3" t="s">
-        <v>18</v>
-      </c>
-      <c r="F3" t="s">
-        <v>19</v>
-      </c>
-      <c r="G3" t="s">
-        <v>20</v>
-      </c>
-      <c r="H3" t="s">
-        <v>21</v>
-      </c>
-      <c r="I3" t="s">
-        <v>22</v>
-      </c>
-      <c r="J3" t="s">
-        <v>23</v>
-      </c>
-      <c r="K3" t="s">
-        <v>24</v>
-      </c>
-      <c r="L3" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="4" spans="1:12">
+    </row>
+    <row r="4" spans="1:6">
       <c r="A4">
         <v>1</v>
       </c>
@@ -1346,37 +1393,19 @@
         <v>100001</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>26</v>
+        <v>14</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>27</v>
+        <v>15</v>
       </c>
       <c r="E4" t="s">
-        <v>28</v>
+        <v>16</v>
       </c>
       <c r="F4" t="s">
-        <v>28</v>
-      </c>
-      <c r="G4" t="s">
-        <v>28</v>
-      </c>
-      <c r="H4" t="s">
-        <v>28</v>
-      </c>
-      <c r="I4" t="s">
-        <v>28</v>
-      </c>
-      <c r="J4" t="s">
-        <v>28</v>
-      </c>
-      <c r="K4" t="s">
-        <v>28</v>
-      </c>
-      <c r="L4" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="5" spans="1:12">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6">
       <c r="A5">
         <v>2</v>
       </c>
@@ -1384,37 +1413,19 @@
         <v>100002</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>29</v>
+        <v>18</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>30</v>
+        <v>19</v>
       </c>
       <c r="E5" t="s">
-        <v>28</v>
+        <v>20</v>
       </c>
       <c r="F5" t="s">
-        <v>28</v>
-      </c>
-      <c r="G5" t="s">
-        <v>28</v>
-      </c>
-      <c r="H5" t="s">
-        <v>28</v>
-      </c>
-      <c r="I5" t="s">
-        <v>28</v>
-      </c>
-      <c r="J5" t="s">
-        <v>28</v>
-      </c>
-      <c r="K5" t="s">
-        <v>28</v>
-      </c>
-      <c r="L5" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="6" spans="1:12">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6">
       <c r="A6">
         <v>3</v>
       </c>
@@ -1422,37 +1433,19 @@
         <v>100003</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>31</v>
+        <v>22</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>32</v>
+        <v>23</v>
       </c>
       <c r="E6" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="F6" t="s">
-        <v>28</v>
-      </c>
-      <c r="G6" t="s">
-        <v>28</v>
-      </c>
-      <c r="H6" t="s">
-        <v>28</v>
-      </c>
-      <c r="I6" t="s">
-        <v>28</v>
-      </c>
-      <c r="J6" t="s">
-        <v>28</v>
-      </c>
-      <c r="K6" t="s">
-        <v>28</v>
-      </c>
-      <c r="L6" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="7" spans="1:12">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6">
       <c r="A7">
         <v>4</v>
       </c>
@@ -1460,37 +1453,19 @@
         <v>100004</v>
       </c>
       <c r="C7" t="s">
-        <v>33</v>
+        <v>26</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>34</v>
+        <v>27</v>
       </c>
       <c r="E7" t="s">
         <v>28</v>
       </c>
       <c r="F7" t="s">
-        <v>28</v>
-      </c>
-      <c r="G7" t="s">
-        <v>28</v>
-      </c>
-      <c r="H7" t="s">
-        <v>28</v>
-      </c>
-      <c r="I7" t="s">
-        <v>28</v>
-      </c>
-      <c r="J7" t="s">
-        <v>28</v>
-      </c>
-      <c r="K7" t="s">
-        <v>28</v>
-      </c>
-      <c r="L7" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="8" customFormat="1" spans="1:12">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="8" customFormat="1" spans="1:6">
       <c r="A8">
         <v>5</v>
       </c>
@@ -1498,37 +1473,19 @@
         <v>100005</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="E8" t="s">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="F8" t="s">
-        <v>28</v>
-      </c>
-      <c r="G8" t="s">
-        <v>28</v>
-      </c>
-      <c r="H8" t="s">
-        <v>28</v>
-      </c>
-      <c r="I8" t="s">
-        <v>28</v>
-      </c>
-      <c r="J8" t="s">
-        <v>28</v>
-      </c>
-      <c r="K8" t="s">
-        <v>28</v>
-      </c>
-      <c r="L8" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="9" spans="1:12">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6">
       <c r="A9">
         <v>6</v>
       </c>
@@ -1536,37 +1493,19 @@
         <v>100006</v>
       </c>
       <c r="C9" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="D9" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="E9" t="s">
+        <v>36</v>
+      </c>
+      <c r="F9" t="s">
         <v>37</v>
       </c>
-      <c r="D9" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="E9" t="s">
-        <v>28</v>
-      </c>
-      <c r="F9" t="s">
-        <v>28</v>
-      </c>
-      <c r="G9" t="s">
-        <v>28</v>
-      </c>
-      <c r="H9" t="s">
-        <v>28</v>
-      </c>
-      <c r="I9" t="s">
-        <v>28</v>
-      </c>
-      <c r="J9" t="s">
-        <v>28</v>
-      </c>
-      <c r="K9" t="s">
-        <v>28</v>
-      </c>
-      <c r="L9" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="10" spans="1:12">
+    </row>
+    <row r="10" spans="1:6">
       <c r="A10">
         <v>7</v>
       </c>
@@ -1574,37 +1513,19 @@
         <v>100007</v>
       </c>
       <c r="C10" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="D10" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="D10" s="1" t="s">
+      <c r="E10" t="s">
         <v>40</v>
       </c>
-      <c r="E10" t="s">
-        <v>28</v>
-      </c>
       <c r="F10" t="s">
-        <v>28</v>
-      </c>
-      <c r="G10" t="s">
-        <v>28</v>
-      </c>
-      <c r="H10" t="s">
-        <v>28</v>
-      </c>
-      <c r="I10" t="s">
-        <v>28</v>
-      </c>
-      <c r="J10" t="s">
-        <v>28</v>
-      </c>
-      <c r="K10" t="s">
-        <v>28</v>
-      </c>
-      <c r="L10" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="11" spans="1:12">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6">
       <c r="A11">
         <v>8</v>
       </c>
@@ -1612,37 +1533,19 @@
         <v>100008</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="E11" t="s">
-        <v>28</v>
+        <v>44</v>
       </c>
       <c r="F11" t="s">
-        <v>28</v>
-      </c>
-      <c r="G11" t="s">
-        <v>28</v>
-      </c>
-      <c r="H11" t="s">
-        <v>28</v>
-      </c>
-      <c r="I11" t="s">
-        <v>28</v>
-      </c>
-      <c r="J11" t="s">
-        <v>28</v>
-      </c>
-      <c r="K11" t="s">
-        <v>28</v>
-      </c>
-      <c r="L11" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="12" spans="1:12">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6">
       <c r="A12">
         <v>9</v>
       </c>
@@ -1650,37 +1553,19 @@
         <v>100009</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="E12" t="s">
-        <v>28</v>
+        <v>48</v>
       </c>
       <c r="F12" t="s">
-        <v>28</v>
-      </c>
-      <c r="G12" t="s">
-        <v>28</v>
-      </c>
-      <c r="H12" t="s">
-        <v>28</v>
-      </c>
-      <c r="I12" t="s">
-        <v>28</v>
-      </c>
-      <c r="J12" t="s">
-        <v>28</v>
-      </c>
-      <c r="K12" t="s">
-        <v>28</v>
-      </c>
-      <c r="L12" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="13" spans="1:12">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6">
       <c r="A13">
         <v>10</v>
       </c>
@@ -1688,37 +1573,19 @@
         <v>100010</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>45</v>
+        <v>50</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>46</v>
+        <v>51</v>
       </c>
       <c r="E13" t="s">
-        <v>28</v>
+        <v>52</v>
       </c>
       <c r="F13" t="s">
-        <v>28</v>
-      </c>
-      <c r="G13" t="s">
-        <v>28</v>
-      </c>
-      <c r="H13" t="s">
-        <v>28</v>
-      </c>
-      <c r="I13" t="s">
-        <v>28</v>
-      </c>
-      <c r="J13" t="s">
-        <v>28</v>
-      </c>
-      <c r="K13" t="s">
-        <v>28</v>
-      </c>
-      <c r="L13" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="14" spans="1:12">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6">
       <c r="A14">
         <v>11</v>
       </c>
@@ -1726,37 +1593,19 @@
         <v>100011</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>47</v>
+        <v>54</v>
       </c>
       <c r="D14" s="1" t="s">
-        <v>48</v>
+        <v>55</v>
       </c>
       <c r="E14" t="s">
-        <v>28</v>
+        <v>56</v>
       </c>
       <c r="F14" t="s">
-        <v>28</v>
-      </c>
-      <c r="G14" t="s">
-        <v>28</v>
-      </c>
-      <c r="H14" t="s">
-        <v>28</v>
-      </c>
-      <c r="I14" t="s">
-        <v>28</v>
-      </c>
-      <c r="J14" t="s">
-        <v>28</v>
-      </c>
-      <c r="K14" t="s">
-        <v>28</v>
-      </c>
-      <c r="L14" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="15" spans="1:12">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6">
       <c r="A15">
         <v>12</v>
       </c>
@@ -1764,37 +1613,19 @@
         <v>100012</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>49</v>
+        <v>58</v>
       </c>
       <c r="D15" s="1" t="s">
-        <v>50</v>
+        <v>59</v>
       </c>
       <c r="E15" t="s">
-        <v>28</v>
+        <v>60</v>
       </c>
       <c r="F15" t="s">
-        <v>28</v>
-      </c>
-      <c r="G15" t="s">
-        <v>28</v>
-      </c>
-      <c r="H15" t="s">
-        <v>28</v>
-      </c>
-      <c r="I15" t="s">
-        <v>28</v>
-      </c>
-      <c r="J15" t="s">
-        <v>28</v>
-      </c>
-      <c r="K15" t="s">
-        <v>28</v>
-      </c>
-      <c r="L15" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="16" spans="1:12">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6">
       <c r="A16">
         <v>13</v>
       </c>
@@ -1802,37 +1633,19 @@
         <v>100013</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>51</v>
+        <v>62</v>
       </c>
       <c r="D16" s="1" t="s">
-        <v>52</v>
+        <v>63</v>
       </c>
       <c r="E16" t="s">
-        <v>28</v>
+        <v>64</v>
       </c>
       <c r="F16" t="s">
-        <v>28</v>
-      </c>
-      <c r="G16" t="s">
-        <v>28</v>
-      </c>
-      <c r="H16" t="s">
-        <v>28</v>
-      </c>
-      <c r="I16" t="s">
-        <v>28</v>
-      </c>
-      <c r="J16" t="s">
-        <v>28</v>
-      </c>
-      <c r="K16" t="s">
-        <v>28</v>
-      </c>
-      <c r="L16" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="17" spans="1:12">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6">
       <c r="A17">
         <v>14</v>
       </c>
@@ -1840,37 +1653,19 @@
         <v>100014</v>
       </c>
       <c r="C17" t="s">
-        <v>53</v>
+        <v>66</v>
       </c>
       <c r="D17" t="s">
-        <v>54</v>
+        <v>67</v>
       </c>
       <c r="E17" t="s">
-        <v>28</v>
+        <v>68</v>
       </c>
       <c r="F17" t="s">
-        <v>28</v>
-      </c>
-      <c r="G17" t="s">
-        <v>28</v>
-      </c>
-      <c r="H17" t="s">
-        <v>28</v>
-      </c>
-      <c r="I17" t="s">
-        <v>28</v>
-      </c>
-      <c r="J17" t="s">
-        <v>28</v>
-      </c>
-      <c r="K17" t="s">
-        <v>28</v>
-      </c>
-      <c r="L17" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="18" spans="1:12">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6">
       <c r="A18">
         <v>15</v>
       </c>
@@ -1878,37 +1673,19 @@
         <v>100015</v>
       </c>
       <c r="C18" t="s">
-        <v>55</v>
+        <v>70</v>
       </c>
       <c r="D18" t="s">
-        <v>56</v>
+        <v>71</v>
       </c>
       <c r="E18" t="s">
-        <v>28</v>
+        <v>72</v>
       </c>
       <c r="F18" t="s">
-        <v>28</v>
-      </c>
-      <c r="G18" t="s">
-        <v>28</v>
-      </c>
-      <c r="H18" t="s">
-        <v>28</v>
-      </c>
-      <c r="I18" t="s">
-        <v>28</v>
-      </c>
-      <c r="J18" t="s">
-        <v>28</v>
-      </c>
-      <c r="K18" t="s">
-        <v>28</v>
-      </c>
-      <c r="L18" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="19" spans="1:12">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6">
       <c r="A19">
         <v>16</v>
       </c>
@@ -1916,37 +1693,19 @@
         <v>100016</v>
       </c>
       <c r="C19" t="s">
-        <v>57</v>
+        <v>74</v>
       </c>
       <c r="D19" t="s">
-        <v>58</v>
+        <v>75</v>
       </c>
       <c r="E19" t="s">
-        <v>28</v>
+        <v>76</v>
       </c>
       <c r="F19" t="s">
-        <v>28</v>
-      </c>
-      <c r="G19" t="s">
-        <v>28</v>
-      </c>
-      <c r="H19" t="s">
-        <v>28</v>
-      </c>
-      <c r="I19" t="s">
-        <v>28</v>
-      </c>
-      <c r="J19" t="s">
-        <v>28</v>
-      </c>
-      <c r="K19" t="s">
-        <v>28</v>
-      </c>
-      <c r="L19" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="20" spans="1:12">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6">
       <c r="A20">
         <v>17</v>
       </c>
@@ -1954,37 +1713,19 @@
         <v>100017</v>
       </c>
       <c r="C20" t="s">
-        <v>59</v>
+        <v>77</v>
       </c>
       <c r="D20" t="s">
-        <v>60</v>
+        <v>78</v>
       </c>
       <c r="E20" t="s">
-        <v>28</v>
+        <v>79</v>
       </c>
       <c r="F20" t="s">
-        <v>28</v>
-      </c>
-      <c r="G20" t="s">
-        <v>28</v>
-      </c>
-      <c r="H20" t="s">
-        <v>28</v>
-      </c>
-      <c r="I20" t="s">
-        <v>28</v>
-      </c>
-      <c r="J20" t="s">
-        <v>28</v>
-      </c>
-      <c r="K20" t="s">
-        <v>28</v>
-      </c>
-      <c r="L20" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="21" spans="1:12">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6">
       <c r="A21">
         <v>18</v>
       </c>
@@ -1992,37 +1733,19 @@
         <v>100018</v>
       </c>
       <c r="C21" t="s">
-        <v>61</v>
+        <v>80</v>
       </c>
       <c r="D21" t="s">
-        <v>62</v>
+        <v>81</v>
       </c>
       <c r="E21" t="s">
-        <v>28</v>
+        <v>82</v>
       </c>
       <c r="F21" t="s">
-        <v>28</v>
-      </c>
-      <c r="G21" t="s">
-        <v>28</v>
-      </c>
-      <c r="H21" t="s">
-        <v>28</v>
-      </c>
-      <c r="I21" t="s">
-        <v>28</v>
-      </c>
-      <c r="J21" t="s">
-        <v>28</v>
-      </c>
-      <c r="K21" t="s">
-        <v>28</v>
-      </c>
-      <c r="L21" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="22" spans="1:12">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6">
       <c r="A22">
         <v>19</v>
       </c>
@@ -2030,37 +1753,19 @@
         <v>100019</v>
       </c>
       <c r="C22" t="s">
-        <v>63</v>
+        <v>84</v>
       </c>
       <c r="D22" t="s">
-        <v>64</v>
+        <v>85</v>
       </c>
       <c r="E22" t="s">
-        <v>28</v>
+        <v>86</v>
       </c>
       <c r="F22" t="s">
-        <v>28</v>
-      </c>
-      <c r="G22" t="s">
-        <v>28</v>
-      </c>
-      <c r="H22" t="s">
-        <v>28</v>
-      </c>
-      <c r="I22" t="s">
-        <v>28</v>
-      </c>
-      <c r="J22" t="s">
-        <v>28</v>
-      </c>
-      <c r="K22" t="s">
-        <v>28</v>
-      </c>
-      <c r="L22" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="23" spans="1:12">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6">
       <c r="A23">
         <v>20</v>
       </c>
@@ -2068,37 +1773,19 @@
         <v>100020</v>
       </c>
       <c r="C23" t="s">
-        <v>65</v>
+        <v>88</v>
       </c>
       <c r="D23" t="s">
-        <v>66</v>
+        <v>89</v>
       </c>
       <c r="E23" t="s">
-        <v>28</v>
+        <v>90</v>
       </c>
       <c r="F23" t="s">
-        <v>28</v>
-      </c>
-      <c r="G23" t="s">
-        <v>28</v>
-      </c>
-      <c r="H23" t="s">
-        <v>28</v>
-      </c>
-      <c r="I23" t="s">
-        <v>28</v>
-      </c>
-      <c r="J23" t="s">
-        <v>28</v>
-      </c>
-      <c r="K23" t="s">
-        <v>28</v>
-      </c>
-      <c r="L23" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="24" spans="1:12">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6">
       <c r="A24">
         <v>21</v>
       </c>
@@ -2106,37 +1793,19 @@
         <v>100021</v>
       </c>
       <c r="C24" t="s">
-        <v>67</v>
+        <v>92</v>
       </c>
       <c r="D24" t="s">
-        <v>68</v>
+        <v>93</v>
       </c>
       <c r="E24" t="s">
-        <v>28</v>
+        <v>94</v>
       </c>
       <c r="F24" t="s">
-        <v>28</v>
-      </c>
-      <c r="G24" t="s">
-        <v>28</v>
-      </c>
-      <c r="H24" t="s">
-        <v>28</v>
-      </c>
-      <c r="I24" t="s">
-        <v>28</v>
-      </c>
-      <c r="J24" t="s">
-        <v>28</v>
-      </c>
-      <c r="K24" t="s">
-        <v>28</v>
-      </c>
-      <c r="L24" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="25" spans="1:12">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6">
       <c r="A25">
         <v>22</v>
       </c>
@@ -2144,34 +1813,36 @@
         <v>100022</v>
       </c>
       <c r="C25" t="s">
-        <v>69</v>
+        <v>96</v>
       </c>
       <c r="D25" t="s">
-        <v>70</v>
+        <v>97</v>
       </c>
       <c r="E25" t="s">
-        <v>28</v>
+        <v>98</v>
       </c>
       <c r="F25" t="s">
-        <v>28</v>
-      </c>
-      <c r="G25" t="s">
-        <v>28</v>
-      </c>
-      <c r="H25" t="s">
-        <v>28</v>
-      </c>
-      <c r="I25" t="s">
-        <v>28</v>
-      </c>
-      <c r="J25" t="s">
-        <v>28</v>
-      </c>
-      <c r="K25" t="s">
-        <v>28</v>
-      </c>
-      <c r="L25" t="s">
-        <v>28</v>
+        <v>99</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6">
+      <c r="A26">
+        <v>23</v>
+      </c>
+      <c r="B26" s="1">
+        <v>100023</v>
+      </c>
+      <c r="C26" t="s">
+        <v>100</v>
+      </c>
+      <c r="D26" t="s">
+        <v>101</v>
+      </c>
+      <c r="E26" t="s">
+        <v>102</v>
+      </c>
+      <c r="F26" t="s">
+        <v>103</v>
       </c>
     </row>
   </sheetData>

--- a/Unity/ReunionMovement/Assets/ReunionMovement/Editor/Excel/Resources/Languages.xlsx
+++ b/Unity/ReunionMovement/Assets/ReunionMovement/Editor/Excel/Resources/Languages.xlsx
@@ -59,16 +59,16 @@
     <t>Number</t>
   </si>
   <si>
-    <t>ZH</t>
-  </si>
-  <si>
-    <t>EN</t>
-  </si>
-  <si>
-    <t>RU</t>
-  </si>
-  <si>
-    <t>JP</t>
+    <t>ZH_CN</t>
+  </si>
+  <si>
+    <t>EN_US</t>
+  </si>
+  <si>
+    <t>RU_RU</t>
+  </si>
+  <si>
+    <t>JA_JP</t>
   </si>
   <si>
     <t>开始游戏</t>
@@ -1312,7 +1312,7 @@
   <dimension ref="A1:F26"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="D26" sqref="D26"/>
+      <selection activeCell="F3" sqref="F3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.5083333333333" defaultRowHeight="13.5" outlineLevelCol="5"/>
